--- a/display_detection/Data_processing/heating_and_magnetic_stirrer_RSM_10HP.xlsx
+++ b/display_detection/Data_processing/heating_and_magnetic_stirrer_RSM_10HP.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\venv311\Detection_system_06_02_24\Data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46F878-A5A6-4810-A859-8A5B7C29D582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78CFF54-9BDF-4AB2-A794-77EB885216C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{0628FE44-1213-4C43-842E-A1F86D1E1C89}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.02.2024" sheetId="5" r:id="rId1"/>
-    <sheet name="14.02.2024" sheetId="4" r:id="rId2"/>
-    <sheet name="12.02.2024" sheetId="3" r:id="rId3"/>
-    <sheet name="09.02.2024" sheetId="2" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
+    <sheet name="22.07.2024" sheetId="7" r:id="rId1"/>
+    <sheet name="02.04.2024" sheetId="6" r:id="rId2"/>
+    <sheet name="22.02.2024" sheetId="5" r:id="rId3"/>
+    <sheet name="14.02.2024" sheetId="4" r:id="rId4"/>
+    <sheet name="12.02.2024" sheetId="3" r:id="rId5"/>
+    <sheet name="09.02.2024" sheetId="2" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="10">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -116,6 +118,932 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heating Temperature</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'22.07.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'22.07.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.40540509259259255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'22.07.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21D2-48E2-BAC0-E35B173E6395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2099751871"/>
+        <c:axId val="2099805455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2099751871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099805455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2099805455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099751871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heating Temperature</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.40568287037037037</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.41726851851851854</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.41936342592592596</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.42070601851851852</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.42121527777777779</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.42177083333333337</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.42357638888888888</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.42458333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.42512731481481486</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.4256712962962963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99A6-48F3-AC4B-F8B3259780CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1667879952"/>
+        <c:axId val="1671741600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1667879952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671741600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1671741600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667879952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -653,7 +1581,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1095,7 +2023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1615,7 +2543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2211,6 +3139,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4275,7 +5283,1121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4331C4-82FB-4A59-B6B4-03D5548BA316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0156887-02FC-43FE-B917-E221019D0677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4316,7 +6438,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4357,7 +6479,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4398,7 +6520,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4735,1463 +6857,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E9F092-DC71-4217-B308-C5F31F4F7A8A}">
-  <dimension ref="A1:AJ18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D6D7D-3FEF-49EE-B4A7-C1259A7D1F71}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>0.53481481481481474</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.53538194444444442</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.53612268518518513</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.53662037037037036</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.53788194444444437</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.53840277777777779</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.53887731481481482</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.54021990740740744</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.54062500000000002</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.54870370370370369</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.54932870370370368</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.54989583333333336</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.55096064814814816</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.55284722222222216</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0.55337962962962961</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.55384259259259261</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.55459490740740736</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0.55616898148148153</v>
+        <v>0.40540509259259255</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>38</v>
-      </c>
-      <c r="J3">
-        <v>68</v>
-      </c>
-      <c r="L3">
-        <v>69</v>
-      </c>
-      <c r="N3">
-        <v>68</v>
-      </c>
-      <c r="P3">
-        <v>74</v>
-      </c>
-      <c r="R3">
-        <v>75</v>
-      </c>
-      <c r="T3">
-        <v>74</v>
-      </c>
-      <c r="V3">
-        <v>64</v>
-      </c>
-      <c r="X3">
-        <v>61</v>
-      </c>
-      <c r="Z3">
-        <v>57</v>
-      </c>
-      <c r="AB3">
-        <v>57</v>
-      </c>
-      <c r="AD3">
-        <v>49</v>
-      </c>
-      <c r="AF3">
-        <v>49</v>
-      </c>
-      <c r="AH3">
-        <v>46</v>
-      </c>
-      <c r="AJ3">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="S5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="U5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="W5" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>45344</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>45344</v>
+        <v>45495</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.53481481481481474</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.53538194444444442</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.53612268518518513</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.53662037037037036</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.53788194444444437</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.53840277777777779</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.53887731481481482</v>
-      </c>
-      <c r="O6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.54021990740740744</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.54062500000000002</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.54870370370370369</v>
-      </c>
-      <c r="U6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.54932870370370368</v>
-      </c>
-      <c r="W6" t="s">
-        <v>3</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.54989583333333336</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.55096064814814816</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.55284722222222216</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0.55337962962962961</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.55384259259259261</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.55459490740740736</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0.55616898148148153</v>
+        <v>0.40540509259259255</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AE8">
-        <v>2</v>
-      </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AI8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>68</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>74</v>
-      </c>
-      <c r="T11" t="s">
-        <v>5</v>
-      </c>
-      <c r="U11">
-        <v>64</v>
-      </c>
-      <c r="V11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>61</v>
-      </c>
-      <c r="X11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11">
-        <v>57</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA11">
-        <v>57</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC11">
-        <v>49</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE11">
-        <v>49</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>46</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI11">
-        <v>45</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>210</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>510</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>210</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>510</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>590</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>590</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>590</v>
-      </c>
-      <c r="N12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>210</v>
-      </c>
-      <c r="V12" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <v>510</v>
-      </c>
-      <c r="X12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y12">
-        <v>510</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA12">
-        <v>510</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC12">
-        <v>340</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE12">
-        <v>340</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG12">
-        <v>340</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI12">
-        <v>340</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.92477520000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>8</v>
+      <c r="B15">
+        <v>0.86854489999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>0.93593806000000002</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0.91385203999999998</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0.94377200000000006</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>0.88486010000000004</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>0.95297759999999998</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>0.91953499999999999</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>0.9465808</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>0.88686072826385498</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14">
-        <v>0.89700663089752197</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>0.87516409158706598</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>0.91030990000000001</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14">
-        <v>0.93840283000000002</v>
-      </c>
-      <c r="Y14">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="Z14">
-        <v>0.90735584000000002</v>
-      </c>
-      <c r="AA14">
-        <v>5</v>
-      </c>
-      <c r="AB14">
-        <v>0.89233684999999996</v>
-      </c>
-      <c r="AC14">
-        <v>4</v>
-      </c>
-      <c r="AD14">
-        <v>0.94990295000000002</v>
-      </c>
-      <c r="AE14">
-        <v>4</v>
-      </c>
-      <c r="AF14">
-        <v>0.88407420000000003</v>
-      </c>
-      <c r="AG14">
-        <v>4</v>
-      </c>
-      <c r="AH14">
-        <v>0.91000884999999998</v>
-      </c>
-      <c r="AI14">
-        <v>4</v>
-      </c>
-      <c r="AJ14">
-        <v>0.91833419999999999</v>
+      <c r="B16">
+        <v>0.88470389999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>0.88224250000000004</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>0.86552320000000005</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>0.93083304</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>0.84505456999999995</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>0.90867454000000003</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>0.93523073000000001</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>0.91955969999999998</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>0.913832247257232</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>0.93274277448654097</v>
-      </c>
-      <c r="S15">
-        <v>4</v>
-      </c>
-      <c r="T15">
-        <v>0.90248012542724598</v>
-      </c>
-      <c r="U15">
-        <v>4</v>
-      </c>
-      <c r="V15">
-        <v>0.91047513000000002</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0.82084710000000005</v>
-      </c>
-      <c r="Y15">
-        <v>7</v>
-      </c>
-      <c r="Z15">
-        <v>0.89843130000000004</v>
-      </c>
-      <c r="AA15">
-        <v>7</v>
-      </c>
-      <c r="AB15">
-        <v>0.90372145000000004</v>
-      </c>
-      <c r="AC15">
-        <v>9</v>
-      </c>
-      <c r="AD15">
-        <v>0.89746669999999995</v>
-      </c>
-      <c r="AE15">
-        <v>9</v>
-      </c>
-      <c r="AF15">
-        <v>0.92504399999999998</v>
-      </c>
-      <c r="AG15">
-        <v>6</v>
-      </c>
-      <c r="AH15">
-        <v>0.90545964000000001</v>
-      </c>
-      <c r="AI15">
-        <v>5</v>
-      </c>
-      <c r="AJ15">
-        <v>0.94164895999999998</v>
+      <c r="B17">
+        <v>0.8935478</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>0.89195349999999995</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.68188070000000001</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.92943540000000002</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>0.62436199999999997</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>0.88858029999999999</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>0.88345309999999999</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>0.86867550000000004</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>0.86296300000000004</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>0.82953069999999995</v>
-      </c>
-      <c r="Y16">
-        <v>5</v>
-      </c>
-      <c r="Z16">
-        <v>0.45271313000000002</v>
-      </c>
-      <c r="AA16">
-        <v>5</v>
-      </c>
-      <c r="AB16">
-        <v>0.73500186000000001</v>
-      </c>
-      <c r="AC16">
-        <v>3</v>
-      </c>
-      <c r="AD16">
-        <v>0.71133082999999997</v>
-      </c>
-      <c r="AE16">
-        <v>3</v>
-      </c>
-      <c r="AF16">
-        <v>0.91103065000000005</v>
-      </c>
-      <c r="AG16">
-        <v>3</v>
-      </c>
-      <c r="AH16">
-        <v>0.86661410000000005</v>
-      </c>
-      <c r="AI16">
-        <v>3</v>
-      </c>
-      <c r="AJ16">
-        <v>0.92620499999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0.69661799999999996</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.67714379999999996</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.78623580000000004</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.68629574999999998</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>0.89507884000000004</v>
-      </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <v>0.79052126</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>0.88053066000000002</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0.58355016000000004</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0.51244719999999999</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0.80838189999999999</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>0.67144614000000002</v>
-      </c>
-      <c r="AC17">
-        <v>4</v>
-      </c>
-      <c r="AD17">
-        <v>0.93826200000000004</v>
-      </c>
-      <c r="AE17">
-        <v>4</v>
-      </c>
-      <c r="AF17">
-        <v>0.89675590000000005</v>
-      </c>
-      <c r="AG17">
-        <v>4</v>
-      </c>
-      <c r="AH17">
-        <v>0.90833883999999998</v>
-      </c>
-      <c r="AI17">
-        <v>4</v>
-      </c>
-      <c r="AJ17">
-        <v>0.91767323000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0.93884844000000001</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0.90699183999999999</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.91116209999999997</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0.91793749999999996</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.92510926999999998</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.91821120000000001</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0.93202704000000003</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0.92972434000000004</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0.92610749999999997</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0.92243620000000004</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0.88841870000000001</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0.90876939999999995</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0.91085669999999996</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0.89622360000000001</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0.94360774999999997</v>
+        <v>0.93125736999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6201,6 +6988,2372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6B99A1-DEDC-47DE-A90F-6219DB1FE34C}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.40568287037037037</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41726851851851854</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.41936342592592596</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.42070601851851852</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.42121527777777779</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.42177083333333337</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.42357638888888888</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.42458333333333331</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.42512731481481486</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.4256712962962963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>119</v>
+      </c>
+      <c r="J3">
+        <v>142</v>
+      </c>
+      <c r="L3">
+        <v>173</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>147</v>
+      </c>
+      <c r="R3">
+        <v>268</v>
+      </c>
+      <c r="T3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.40568287037037037</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41726851851851854</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.41936342592592596</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.42070601851851852</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.42121527777777779</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.42177083333333337</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.42357638888888888</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.42458333333333331</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.42512731481481486</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.4256712962962963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>142</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>173</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>147</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>268</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>280</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>910</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>910</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>770</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>828</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>870</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>1070</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>1180</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>270</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>200</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.92915959999999997</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.83617059999999999</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.81880989999999998</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.81112839999999997</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0.90761970000000003</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.81647073999999997</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0.93215983999999996</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>0.90451413000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.90756269999999994</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.81441220000000003</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0.88877099999999998</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>0.91365415000000005</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0.92849565000000001</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>0.89322040000000003</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0.91544080000000005</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>0.94017019999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.8625623</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.88256376981735196</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.88256376981735196</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>0.90896060000000001</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0.86721530000000002</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0.91450476999999997</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.88422436000000004</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>0.90764350000000005</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>0.82582710000000004</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.68241399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.88046559999999996</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.88586723804473799</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.88586723804473799</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>0.86961980000000005</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>0.88299154999999996</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>0.8858279</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.65178510000000001</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.85936979999999996</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0.88899019999999995</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>0.92592406000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.84352000000000005</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>0.92652219999999996</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.93092626000000001</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>0.94082683</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>0.92181400000000002</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0.84652859999999996</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>0.94676150000000003</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.67306023999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0.60969910000000005</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.84764795999999998</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>0.50904689999999997</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.7602274</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.53257304000000005</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>0.85475904000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.76884496000000002</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0.83421122999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.64659759999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E9F092-DC71-4217-B308-C5F31F4F7A8A}">
+  <dimension ref="A1:AJ18"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.53481481481481474</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.53538194444444442</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.53612268518518513</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.53662037037037036</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.53788194444444437</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.53840277777777779</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.53887731481481482</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.54021990740740744</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.54062500000000002</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.54870370370370369</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.54932870370370368</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.54989583333333336</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.55096064814814816</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.55284722222222216</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.55337962962962961</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.55384259259259261</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.55459490740740736</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.55616898148148153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>68</v>
+      </c>
+      <c r="L3">
+        <v>69</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="P3">
+        <v>74</v>
+      </c>
+      <c r="R3">
+        <v>75</v>
+      </c>
+      <c r="T3">
+        <v>74</v>
+      </c>
+      <c r="V3">
+        <v>64</v>
+      </c>
+      <c r="X3">
+        <v>61</v>
+      </c>
+      <c r="Z3">
+        <v>57</v>
+      </c>
+      <c r="AB3">
+        <v>57</v>
+      </c>
+      <c r="AD3">
+        <v>49</v>
+      </c>
+      <c r="AF3">
+        <v>49</v>
+      </c>
+      <c r="AH3">
+        <v>46</v>
+      </c>
+      <c r="AJ3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>45344</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.53481481481481474</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53538194444444442</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.53612268518518513</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.53662037037037036</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.53788194444444437</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.53840277777777779</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.53887731481481482</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.54021990740740744</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.54062500000000002</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.54870370370370369</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.54932870370370368</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.54989583333333336</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.55096064814814816</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.55284722222222216</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.55337962962962961</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.55384259259259261</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.55459490740740736</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.55616898148148153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>74</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>57</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>57</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>49</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>49</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>510</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>510</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>590</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>590</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>590</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>210</v>
+      </c>
+      <c r="V12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>510</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>510</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>510</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>340</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>340</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>340</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI12">
+        <v>340</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.93593806000000002</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.91385203999999998</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0.94377200000000006</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0.88486010000000004</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0.95297759999999998</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>0.91953499999999999</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>0.9465808</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>0.88686072826385498</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>0.89700663089752197</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>0.87516409158706598</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>0.91030990000000001</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>0.93840283000000002</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>0.90735584000000002</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>0.89233684999999996</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>0.94990295000000002</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
+      <c r="AF14">
+        <v>0.88407420000000003</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AH14">
+        <v>0.91000884999999998</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>0.91833419999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.88224250000000004</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0.86552320000000005</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0.93083304</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>0.84505456999999995</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>0.90867454000000003</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>0.93523073000000001</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>0.91955969999999998</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>0.913832247257232</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>0.93274277448654097</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>0.90248012542724598</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>0.91047513000000002</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.82084710000000005</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>0.89843130000000004</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>0.90372145000000004</v>
+      </c>
+      <c r="AC15">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>0.89746669999999995</v>
+      </c>
+      <c r="AE15">
+        <v>9</v>
+      </c>
+      <c r="AF15">
+        <v>0.92504399999999998</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15">
+        <v>0.90545964000000001</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AJ15">
+        <v>0.94164895999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0.89195349999999995</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.68188070000000001</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.92943540000000002</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0.62436199999999997</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>0.88858029999999999</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>0.88345309999999999</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0.86867550000000004</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>0.86296300000000004</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>0.82953069999999995</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>0.45271313000000002</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>0.73500186000000001</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>0.71133082999999997</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>0.91103065000000005</v>
+      </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <v>0.86661410000000005</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AJ16">
+        <v>0.92620499999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.69661799999999996</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.67714379999999996</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.78623580000000004</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.68629574999999998</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>0.89507884000000004</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>0.79052126</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>0.88053066000000002</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0.58355016000000004</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0.51244719999999999</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0.80838189999999999</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0.67144614000000002</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+      <c r="AD17">
+        <v>0.93826200000000004</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>0.89675590000000005</v>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+      <c r="AH17">
+        <v>0.90833883999999998</v>
+      </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
+      <c r="AJ17">
+        <v>0.91767323000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.93884844000000001</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.90699183999999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.91116209999999997</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.91793749999999996</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.92510926999999998</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.91821120000000001</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.93202704000000003</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0.92972434000000004</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.92610749999999997</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.92243620000000004</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0.88841870000000001</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0.90876939999999995</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0.91085669999999996</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0.89622360000000001</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0.94360774999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05B920-3D8B-4634-A41A-2ACE35D0A927}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -6370,7 +9523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACE7B6-200F-4E9A-8582-3F1098CED26A}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -7718,7 +10871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F8F880-70B6-4C0B-B439-1D699C86F12A}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -7827,7 +10980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB08706D-810F-41CA-B1D5-CF63BBE72771}">
   <dimension ref="A1"/>
   <sheetViews>
